--- a/WebContent/WEB-INF/classes/template/excel/test_1.xlsx
+++ b/WebContent/WEB-INF/classes/template/excel/test_1.xlsx
@@ -181,7 +181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2433">
+  <cellXfs count="2436">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" horizontal="center"/>
     </xf>
@@ -7409,6 +7409,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true">
       <alignment wrapText="true" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true">
+      <alignment wrapText="true" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true">
+      <alignment wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true">
       <alignment wrapText="true" horizontal="center"/>
